--- a/state-code-gen/m1/test-Flow.xlsx
+++ b/state-code-gen/m1/test-Flow.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="state-chart" sheetId="1" r:id="rId1"/>
@@ -229,19 +229,6 @@
   </si>
   <si>
     <t>wait-cmt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">:output=MainFlowStateControl_created.cs
-::
-public enum MainFlowState 
-{
-    $contents1$
-}
-public partial class MainFlowStateControl {
-    $contents2$
-}
-</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -590,6 +577,20 @@
     }
 }</t>
   </si>
+  <si>
+    <t xml:space="preserve">:output=MainFlowStateControl_created.cs
+:lang=c#
+::
+public enum MainFlowState 
+{
+    $contents1$
+}
+public partial class MainFlowStateControl {
+    $contents2$
+}
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -627,17 +628,17 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -817,58 +818,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="アクセント 1" xfId="1" builtinId="29"/>
@@ -1153,554 +1154,554 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="16384" width="15.625" style="5"/>
+    <col min="1" max="16384" width="15.625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="144.75" customHeight="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="4"/>
+      <c r="A1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="6"/>
     </row>
     <row r="2" spans="1:14" ht="37.5">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" s="9"/>
+      <c r="N2" s="10"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="10"/>
+    </row>
+    <row r="4" spans="1:14" ht="37.5">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="10"/>
+    </row>
+    <row r="5" spans="1:14" ht="37.5">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="13"/>
+    </row>
+    <row r="6" spans="1:14" ht="37.5">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="13"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="13"/>
+    </row>
+    <row r="8" spans="1:14" ht="56.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="13"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="13"/>
+    </row>
+    <row r="10" spans="1:14" ht="37.5">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="13"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="M11" s="12"/>
+      <c r="N11" s="13"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M12" s="12"/>
+      <c r="N12" s="13"/>
+    </row>
+    <row r="13" spans="1:14" ht="37.5">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="13"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="13"/>
+    </row>
+    <row r="15" spans="1:14" ht="37.5">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="13"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="13"/>
+    </row>
+    <row r="17" spans="1:14" ht="37.5">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="13"/>
+    </row>
+    <row r="18" spans="1:14" ht="37.5">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="13"/>
+    </row>
+    <row r="19" spans="1:14" ht="112.5">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="8"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="8"/>
-    </row>
-    <row r="4" spans="1:14" ht="37.5">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="8"/>
-    </row>
-    <row r="5" spans="1:14" ht="37.5">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="11"/>
-    </row>
-    <row r="6" spans="1:14" ht="37.5">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="11"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="11"/>
-    </row>
-    <row r="8" spans="1:14" ht="56.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="11"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="11"/>
-    </row>
-    <row r="10" spans="1:14" ht="37.5">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="11"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10" t="s">
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="M19" s="15"/>
+      <c r="N19" s="16"/>
+    </row>
+    <row r="20" spans="1:14" ht="75">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="M11" s="10"/>
-      <c r="N11" s="11"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="M12" s="10"/>
-      <c r="N12" s="11"/>
-    </row>
-    <row r="13" spans="1:14" ht="37.5">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="11"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="11"/>
-    </row>
-    <row r="15" spans="1:14" ht="37.5">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="11"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="11"/>
-    </row>
-    <row r="17" spans="1:14" ht="37.5">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="11"/>
-    </row>
-    <row r="18" spans="1:14" ht="37.5">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="11"/>
-    </row>
-    <row r="19" spans="1:14" ht="112.5">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="I19" s="13" t="s">
+      <c r="M20" s="15"/>
+      <c r="N20" s="16"/>
+    </row>
+    <row r="21" spans="1:14" ht="37.5">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="M19" s="13"/>
-      <c r="N19" s="14"/>
-    </row>
-    <row r="20" spans="1:14" ht="75">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="M20" s="13"/>
-      <c r="N20" s="14"/>
-    </row>
-    <row r="21" spans="1:14" ht="37.5">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10" t="s">
+      <c r="C21" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="13"/>
+    </row>
+    <row r="22" spans="1:14" ht="19.5" thickBot="1">
+      <c r="A22" s="17"/>
+      <c r="B22" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C22" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="11"/>
-    </row>
-    <row r="22" spans="1:14" ht="19.5" thickBot="1">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="17"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1717,12 +1718,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="16384" width="9" style="19"/>
+    <col min="1" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="18" t="s">
-        <v>84</v>
+      <c r="A1" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1735,15 +1736,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6BC2D2-8452-4BB1-8038-A2E0546DE866}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D1:D3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/state-code-gen/m1/test-Flow.xlsx
+++ b/state-code-gen/m1/test-Flow.xlsx
@@ -585,6 +585,13 @@
 {
     $contents1$
 }
+/*
+Sub MainFlow_Select(func As String, bFirst As Boolean)
+    Select Case func
+         $contents3$
+    End Select
+End Sub
+*/
 public partial class MainFlowStateControl {
     $contents2$
 }
@@ -596,7 +603,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -641,6 +648,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -813,11 +827,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -870,6 +881,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="アクセント 1" xfId="1" builtinId="29"/>
@@ -1160,548 +1175,548 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="16384" width="15.625" style="7"/>
+    <col min="1" max="16384" width="15.625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="144.75" customHeight="1">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="6"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="37.5">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="10"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="10"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="9"/>
     </row>
     <row r="4" spans="1:14" ht="37.5">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9" t="s">
+      <c r="H4" s="8"/>
+      <c r="I4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="10"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="9"/>
     </row>
     <row r="5" spans="1:14" ht="37.5">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="13"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="12"/>
     </row>
     <row r="6" spans="1:14" ht="37.5">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="13"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="12"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="13"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="12"/>
     </row>
     <row r="8" spans="1:14" ht="56.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="13"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="12"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12" t="s">
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="13"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="12"/>
     </row>
     <row r="10" spans="1:14" ht="37.5">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="13"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="12"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12" t="s">
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="M11" s="12"/>
-      <c r="N11" s="13"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="12"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12" t="s">
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="M12" s="12"/>
-      <c r="N12" s="13"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="12"/>
     </row>
     <row r="13" spans="1:14" ht="37.5">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12" t="s">
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="13"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="12"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12" t="s">
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K14" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="13"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="12"/>
     </row>
     <row r="15" spans="1:14" ht="37.5">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12" t="s">
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="13"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="12"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12" t="s">
+      <c r="D16" s="11"/>
+      <c r="E16" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12" t="s">
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="13"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="12"/>
     </row>
     <row r="17" spans="1:14" ht="37.5">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12" t="s">
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="13"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="12"/>
     </row>
     <row r="18" spans="1:14" ht="37.5">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12" t="s">
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="13"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="12"/>
     </row>
     <row r="19" spans="1:14" ht="112.5">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15" t="s">
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="I19" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15" t="s">
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="M19" s="15"/>
-      <c r="N19" s="16"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="15"/>
     </row>
     <row r="20" spans="1:14" ht="75">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15" t="s">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15" t="s">
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="I20" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15" t="s">
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="M20" s="15"/>
-      <c r="N20" s="16"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="15"/>
     </row>
     <row r="21" spans="1:14" ht="37.5">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12" t="s">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12" t="s">
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="13"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="12"/>
     </row>
     <row r="22" spans="1:14" ht="19.5" thickBot="1">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18" t="s">
+      <c r="A22" s="16"/>
+      <c r="B22" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="19"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1718,11 +1733,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="16384" width="9" style="3"/>
+    <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1739,9 +1754,12 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="20"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="19" t="s">
         <v>84</v>
       </c>
     </row>

--- a/state-code-gen/m1/test-Flow.xlsx
+++ b/state-code-gen/m1/test-Flow.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="state-chart" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="86">
   <si>
     <t>state</t>
     <phoneticPr fontId="1"/>
@@ -500,6 +500,34 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">:output=MainFlowStateControl_created.cs
+:lang=c#
+::
+public enum MainFlowState 
+{
+    $contents1$
+}
+/*
+Sub MainFlow_Select(func As String, bFirst As Boolean)
+    Select Case func
+         $contents3$
+    End Select
+End Sub
+*/
+public partial class MainFlowStateControl {
+    $contents2$
+}
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無指定</t>
+    <rPh sb="0" eb="3">
+      <t>ムシテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -562,7 +590,7 @@
         /*
             [[branch-cmt]]
         */
-        [[branch]];
+        [[branch]]
         &gt;&gt;&gt;
         if (HasNextState())
         {
@@ -576,26 +604,6 @@
         }
     }
 }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:output=MainFlowStateControl_created.cs
-:lang=c#
-::
-public enum MainFlowState 
-{
-    $contents1$
-}
-/*
-Sub MainFlow_Select(func As String, bFirst As Boolean)
-    Select Case func
-         $contents3$
-    End Select
-End Sub
-*/
-public partial class MainFlowStateControl {
-    $contents2$
-}
-</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -642,17 +650,17 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -829,62 +837,62 @@
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="アクセント 1" xfId="1" builtinId="29"/>
@@ -1167,556 +1175,559 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="16384" width="15.625" style="6"/>
+    <col min="1" max="16384" width="15.625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="144.75" customHeight="1">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="5"/>
+      <c r="A1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="6"/>
     </row>
     <row r="2" spans="1:14" ht="37.5">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="10"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="10"/>
     </row>
     <row r="4" spans="1:14" ht="37.5">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8" t="s">
+      <c r="H4" s="9"/>
+      <c r="I4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="10"/>
     </row>
     <row r="5" spans="1:14" ht="37.5">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="13"/>
     </row>
     <row r="6" spans="1:14" ht="37.5">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="13"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11" t="s">
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="13"/>
     </row>
     <row r="8" spans="1:14" ht="56.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="13"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11" t="s">
+      <c r="D9" s="12"/>
+      <c r="E9" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11" t="s">
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="13"/>
     </row>
     <row r="10" spans="1:14" ht="37.5">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11" t="s">
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="13"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11" t="s">
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="M11" s="11"/>
-      <c r="N11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="13"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11" t="s">
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="M12" s="11"/>
-      <c r="N12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="13"/>
     </row>
     <row r="13" spans="1:14" ht="37.5">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11" t="s">
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="13"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11" t="s">
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="13"/>
     </row>
     <row r="15" spans="1:14" ht="37.5">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11" t="s">
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="13"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11" t="s">
+      <c r="D16" s="12"/>
+      <c r="E16" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11" t="s">
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="13"/>
     </row>
     <row r="17" spans="1:14" ht="37.5">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11" t="s">
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="13"/>
     </row>
     <row r="18" spans="1:14" ht="37.5">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11" t="s">
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="13"/>
     </row>
     <row r="19" spans="1:14" ht="112.5">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14" t="s">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14" t="s">
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="H19" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="I19" s="14" t="s">
+      <c r="I19" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14" t="s">
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="M19" s="14"/>
-      <c r="N19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="16"/>
     </row>
     <row r="20" spans="1:14" ht="75">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14" t="s">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14" t="s">
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="I20" s="14" t="s">
+      <c r="I20" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14" t="s">
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="M20" s="14"/>
-      <c r="N20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="16"/>
     </row>
     <row r="21" spans="1:14" ht="37.5">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11" t="s">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11" t="s">
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="13"/>
     </row>
     <row r="22" spans="1:14" ht="19.5" thickBot="1">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17" t="s">
+      <c r="A22" s="17"/>
+      <c r="B22" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1727,18 +1738,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D99C82-D23D-4120-B174-6D9E384372A1}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="16384" width="9" style="2"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="1" t="s">
-        <v>83</v>
+      <c r="A1" s="20" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1749,18 +1761,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6BC2D2-8452-4BB1-8038-A2E0546DE866}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="16384" width="9" style="20"/>
+    <col min="1" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="19" t="s">
-        <v>84</v>
+      <c r="A1" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
